--- a/municipal/ENG/Education/Preschool and Education Institutions/Adjara A.R/Keda.xlsx
+++ b/municipal/ENG/Education/Preschool and Education Institutions/Adjara A.R/Keda.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\Social Statistic\სკოლამდელი აღზრდისა და განათლების დაწესებულებები\აჭარა\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\საბოლოო მაჩვენებლები\სოციალური ქარ. EN\Social Statistic\Preschool and Education Institutions\Adjara A.R\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -95,7 +95,17 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>1</t>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>municipality</t>
     </r>
   </si>
 </sst>
@@ -309,9 +319,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -319,11 +326,14 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -607,9 +617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -620,16 +628,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -639,16 +647,16 @@
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -686,11 +694,11 @@
       <c r="R3" s="19"/>
     </row>
     <row r="4" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
       <c r="D4" s="9">
         <v>15</v>
       </c>
@@ -866,11 +874,11 @@
       <c r="AB8" s="1"/>
     </row>
     <row r="9" spans="1:28" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
       <c r="D9" s="18">
         <v>1121.6000000000001</v>
       </c>
@@ -895,10 +903,10 @@
       <c r="O9" s="1"/>
     </row>
     <row r="10" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="24"/>
+      <c r="B10" s="23"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -921,16 +929,15 @@
       <c r="O11" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
